--- a/data/trans_dic/P25A_7_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A_7_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente)</t>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>14,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,03%</t>
+          <t>14,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>26,54%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>26,76%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,28%</t>
+          <t>25,12%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,91%</t>
+          <t>27,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,59%</t>
+          <t>40,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>19,17%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>20,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>28,31%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,41</t>
+          <t>1,56; 18,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,61; 20,81</t>
+          <t>4,93; 28,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,99; 21,77</t>
+          <t>4,87; 28,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>19,5; 35,18</t>
+          <t>3,91; 25,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,47; 35,9</t>
+          <t>18,15; 44,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,04; 34,08</t>
+          <t>14,0; 39,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>11,87; 22,5</t>
+          <t>16,05; 41,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 26,65</t>
+          <t>25,24; 61,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 25,76</t>
+          <t>11,26; 28,86</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12,05; 30,49</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,2; 32,62</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>16,07; 44,36</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19,27%</t>
+          <t>15,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>20,16%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,23%</t>
+          <t>21,63%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>13,42%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>25,23%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>15,61%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>14,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,97%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>20,13%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 10,38</t>
+          <t>5,97; 16,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 9,54</t>
+          <t>3,27; 10,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,01; 14,94</t>
+          <t>4,55; 27,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15,26; 24,36</t>
+          <t>8,16; 32,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>15,52; 26,03</t>
+          <t>15,06; 26,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,15; 31,3</t>
+          <t>15,52; 28,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>10,57; 16,4</t>
+          <t>18,24; 30,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 16,96</t>
+          <t>19,39; 33,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>12,38; 20,4</t>
+          <t>12,01; 20,02</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>10,69; 18,35</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>12,61; 24,08</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>15,43; 28,58</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,11%</t>
+          <t>12,59%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,45%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,84%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,29%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>13,62%</t>
+          <t>8,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>12,29%</t>
+          <t>12,73%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,87%</t>
+          <t>14,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>10,43%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12,38%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>15,94%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,52; 16,18</t>
+          <t>7,11; 19,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,99; 14,49</t>
+          <t>6,72; 19,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,81</t>
+          <t>6,98; 18,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,32; 17,99</t>
+          <t>11,31; 25,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,27; 14,75</t>
+          <t>5,65; 14,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,86; 18,3</t>
+          <t>5,71; 13,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,46</t>
+          <t>7,73; 18,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,45; 12,76</t>
+          <t>9,49; 20,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,38; 15,65</t>
+          <t>7,58; 14,4</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>7,33; 14,2</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 16,4</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>12,16; 20,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>9,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>15,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,28; 10,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>6,32; 10,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,22; 21,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 15,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,45; 15,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,95; 17,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,72%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,63%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11,59%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>15,82%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>16,92%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>20,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>15,9%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>20,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 14,4</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,7; 13,46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7,76; 19,54</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11,19; 25,19</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>13,36; 20,81</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>13,6; 20,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>16,52; 24,19</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>19,47; 30,53</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 17,32</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>11,11; 16,05</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>13,16; 19,91</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 25,08</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación por dolor crónico (pecho; espalda, cuello, hombro, cintura (cervical/lumbar); migrañas/jaquecas/ cefaleas crónicas/ dolor de cabeza frecuente) (tasa de respuesta: 99,9%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8009</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>15180</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16756</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>24306</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>43557</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>29013</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>33393</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>86576</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>51566</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>44193</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50150</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>110883</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2005; 23740</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5195; 29814</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5554; 32524</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6944; 45807</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25429; 61648</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>16175; 45465</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>19408; 50681</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>53997; 132489</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30284; 77620</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>26634; 67368</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>31017; 76655</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>62949; 173702</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>44932</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>23984</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>41768</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>78724</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>93616</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>82371</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>89366</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>124823</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>138548</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>106355</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>131134</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>203547</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>25256; 70598</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>12306; 40902</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>18180; 109975</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>42141; 169042</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>69944; 125083</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>59126; 107180</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>68054; 112616</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>95899; 166859</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>106603; 177605</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>80942; 138902</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>97441; 186059</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>156072; 289056</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>41917</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>34411</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>32951</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>62692</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>39717</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30960</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>41453</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>57301</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>81634</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>65371</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>74404</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>119993</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>23678; 66258</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18987; 55810</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>19213; 50650</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>39969; 90454</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>24203; 60926</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>19693; 47713</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>25161; 59805</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37929; 81119</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>57713; 109601</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>45959; 89045</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>52916; 98598</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>91574; 156263</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>79.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>94858</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73575</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>91475</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165723</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>176890</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>142344</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>164212</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>268700</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>271748</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>215919</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>255687</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>434423</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>67161; 127367</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>51194; 102857</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>61200; 154147</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>117181; 263856</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>137971; 214981</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>114395; 174873</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>135421; 198299</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>215732; 338318</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>226942; 332051</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>178270; 257679</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>211711; 320239</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>356863; 540727</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
